--- a/模型验证.xlsx
+++ b/模型验证.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://76rp4l-my.sharepoint.com/personal/nothingnessvoid_76rp4l_onmicrosoft_com/Documents/学校用/毕业设计/Graduation-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="74" documentId="11_12DDF9071C74480F62355476585DCE3A87475271" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{20113248-FAC9-4B88-A9EC-C4C1ADD96162}"/>
+  <xr:revisionPtr revIDLastSave="83" documentId="11_12DDF9071C74480F62355476585DCE3A87475271" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{11FB4475-CFED-4CBD-BF73-A402567D7778}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-1965" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -269,11 +269,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="70" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -306,23 +306,23 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="25400">
               <a:noFill/>
-              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="4"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -1310,7 +1310,7 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:schemeClr val="dk1">
                   <a:lumMod val="15000"/>
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
@@ -1325,14 +1325,8 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1343,9 +1337,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1371,7 +1365,7 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:schemeClr val="dk1">
                   <a:lumMod val="15000"/>
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
@@ -1387,14 +1381,8 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1405,9 +1393,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1435,12 +1423,25 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="43000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
+        <a:schemeClr val="dk1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -1495,11 +1496,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="70" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -1532,23 +1533,23 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="25400">
               <a:noFill/>
-              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="4"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -2536,7 +2537,7 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:schemeClr val="dk1">
                   <a:lumMod val="15000"/>
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
@@ -2551,14 +2552,8 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -2569,9 +2564,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -2597,7 +2592,7 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:schemeClr val="dk1">
                   <a:lumMod val="15000"/>
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
@@ -2613,14 +2608,8 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -2631,9 +2620,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -2661,12 +2650,25 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="43000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
+        <a:schemeClr val="dk1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -2721,11 +2723,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="70" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -2758,23 +2760,23 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="25400">
               <a:noFill/>
-              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="4"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -3762,7 +3764,7 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:schemeClr val="dk1">
                   <a:lumMod val="15000"/>
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
@@ -3777,14 +3779,8 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -3795,9 +3791,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -3823,7 +3819,7 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:schemeClr val="dk1">
                   <a:lumMod val="15000"/>
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
@@ -3839,14 +3835,8 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -3857,9 +3847,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -3887,12 +3877,25 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="43000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
+        <a:schemeClr val="dk1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -3947,11 +3950,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="70" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -3984,23 +3987,23 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="25400">
               <a:noFill/>
-              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="4"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -4988,7 +4991,7 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:schemeClr val="dk1">
                   <a:lumMod val="15000"/>
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
@@ -5003,14 +5006,8 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -5021,9 +5018,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -5049,7 +5046,7 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:schemeClr val="dk1">
                   <a:lumMod val="15000"/>
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
@@ -5065,14 +5062,8 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -5083,9 +5074,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -5113,12 +5104,25 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="43000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
+        <a:schemeClr val="dk1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -5306,35 +5310,35 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="244">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -5342,20 +5346,33 @@
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:chartArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="43000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -5363,16 +5380,16 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -5389,16 +5406,11 @@
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -5407,39 +5419,50 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="phClr">
+            <a:alpha val="20000"/>
+          </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointLine>
@@ -5447,7 +5470,7 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
@@ -5455,14 +5478,18 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -5470,7 +5497,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -5486,16 +5513,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -5519,14 +5545,13 @@
           <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -5538,14 +5563,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -5557,14 +5581,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:errorBar>
@@ -5575,12 +5598,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -5592,7 +5609,7 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -5611,7 +5628,7 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
@@ -5628,14 +5645,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -5647,14 +5663,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -5663,14 +5678,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -5678,7 +5693,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -5692,10 +5707,20 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -5706,14 +5731,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -5722,16 +5746,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="0" kern="1200" spc="70" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
+      <cs:styleClr val="0"/>
     </cs:lnRef>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -5739,11 +5763,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="63500" cap="rnd" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="phClr">
+            <a:alpha val="25000"/>
+          </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -5752,9 +5778,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -5770,14 +5796,13 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -5786,22 +5811,11 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -5811,46 +5825,40 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="244">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -5858,20 +5866,33 @@
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:chartArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="43000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -5879,16 +5900,16 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -5905,16 +5926,11 @@
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -5923,39 +5939,50 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="phClr">
+            <a:alpha val="20000"/>
+          </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointLine>
@@ -5963,7 +5990,7 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
@@ -5971,14 +5998,18 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -5986,7 +6017,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -6002,16 +6033,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -6035,14 +6065,13 @@
           <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -6054,14 +6083,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -6073,14 +6101,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:errorBar>
@@ -6091,12 +6118,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -6108,7 +6129,7 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -6127,7 +6148,7 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
@@ -6144,14 +6165,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -6163,14 +6183,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -6179,14 +6198,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -6194,7 +6213,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -6208,10 +6227,20 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -6222,14 +6251,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -6238,16 +6266,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="0" kern="1200" spc="70" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
+      <cs:styleClr val="0"/>
     </cs:lnRef>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -6255,11 +6283,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="63500" cap="rnd" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="phClr">
+            <a:alpha val="25000"/>
+          </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -6268,9 +6298,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -6286,14 +6316,13 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -6302,22 +6331,11 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -6327,46 +6345,40 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="244">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -6374,20 +6386,33 @@
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:chartArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="43000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -6395,16 +6420,16 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -6421,16 +6446,11 @@
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -6439,39 +6459,50 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="phClr">
+            <a:alpha val="20000"/>
+          </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointLine>
@@ -6479,7 +6510,7 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
@@ -6487,14 +6518,18 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -6502,7 +6537,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -6518,16 +6553,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -6551,14 +6585,13 @@
           <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -6570,14 +6603,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -6589,14 +6621,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:errorBar>
@@ -6607,12 +6638,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -6624,7 +6649,7 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -6643,7 +6668,7 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
@@ -6660,14 +6685,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -6679,14 +6703,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -6695,14 +6718,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -6710,7 +6733,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -6724,10 +6747,20 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -6738,14 +6771,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -6754,16 +6786,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="0" kern="1200" spc="70" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
+      <cs:styleClr val="0"/>
     </cs:lnRef>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -6771,11 +6803,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="63500" cap="rnd" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="phClr">
+            <a:alpha val="25000"/>
+          </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -6784,9 +6818,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -6802,14 +6836,13 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -6818,22 +6851,11 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -6843,46 +6865,40 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="244">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -6890,20 +6906,33 @@
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:chartArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="43000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -6911,16 +6940,16 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -6937,16 +6966,11 @@
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -6955,39 +6979,50 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="phClr">
+            <a:alpha val="20000"/>
+          </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointLine>
@@ -6995,7 +7030,7 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
@@ -7003,14 +7038,18 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -7018,7 +7057,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -7034,16 +7073,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -7067,14 +7105,13 @@
           <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -7086,14 +7123,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -7105,14 +7141,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:errorBar>
@@ -7123,12 +7158,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -7140,7 +7169,7 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -7159,7 +7188,7 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
@@ -7176,14 +7205,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -7195,14 +7223,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -7211,14 +7238,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -7226,7 +7253,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -7240,10 +7267,20 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -7254,14 +7291,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -7270,16 +7306,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="0" kern="1200" spc="70" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
+      <cs:styleClr val="0"/>
     </cs:lnRef>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -7287,11 +7323,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="63500" cap="rnd" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="phClr">
+            <a:alpha val="25000"/>
+          </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -7300,9 +7338,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -7318,14 +7356,13 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -7334,22 +7371,11 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -7359,12 +7385,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -7374,15 +7394,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>71437</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:colOff>90487</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>528637</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:colOff>547687</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7446,15 +7466,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>623887</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:colOff>557212</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>395287</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:colOff>328612</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7482,15 +7502,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>604837</xdr:colOff>
+      <xdr:colOff>557212</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:rowOff>52387</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>376237</xdr:colOff>
+      <xdr:colOff>328612</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:rowOff>52387</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7806,7 +7826,7 @@
   <dimension ref="A1:G316"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G316"/>
+      <selection activeCell="V28" sqref="V28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -16351,31 +16371,31 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="G2:G1048576">
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="greaterThan">
+  <conditionalFormatting sqref="D2:D316">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="lessThan">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D316">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
+  <conditionalFormatting sqref="G2:G1048576">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="7" operator="lessThan">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="8" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
